--- a/Files/SciQ Files/SciQ_results.xlsx
+++ b/Files/SciQ Files/SciQ_results.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27628"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/47bc981eb124341c/Ambiente de Trabalho/TESE_2024/DATASETS TESE/DATASET_ANSWERS/SciQ/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1765" documentId="11_FCE0DECE8F79A8D366075C52F37BD2724AC86CA0" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1D967540-4C71-4B58-9ACF-CD4E4C71AC0D}"/>
+  <xr:revisionPtr revIDLastSave="1974" documentId="11_FCE0DECE8F79A8D366075C52F37BD2724AC86CA0" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FA201F06-E24C-4D88-9D45-54EAAECC8E87}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="5140" yWindow="3180" windowWidth="14400" windowHeight="7360" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="General Analysis" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="98">
   <si>
     <t>Sub-Branch</t>
   </si>
@@ -327,13 +327,23 @@
   <si>
     <t>p (for GPT-4)</t>
   </si>
+  <si>
+    <t>test statistic</t>
+  </si>
+  <si>
+    <t>p-value</t>
+  </si>
+  <si>
+    <t>alpha</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.00000%"/>
+    <numFmt numFmtId="166" formatCode="0.00000"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -757,7 +767,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -868,18 +878,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -910,10 +912,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -922,14 +939,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -937,17 +951,72 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="5">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
@@ -4184,11 +4253,1554 @@
     </mc:AlternateContent>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3" name="TextBox 2">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{838A3B77-0E5D-4B13-93E1-5E8B578F5271}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="609600" y="10610850"/>
+              <a:ext cx="10274300" cy="2171700"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:ln w="12700" cmpd="sng">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="1"/>
+                <a:t>Theory</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="1" baseline="0"/>
+                <a:t> behind hypothesis test:</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t>To</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" baseline="0"/>
+                <a:t> test if GPT-4 is better than GPT-3.5, we can test the following hypothesis:</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝐻</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>0</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>: </m:t>
+                    </m:r>
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝜇</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>1</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>=</m:t>
+                    </m:r>
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝜇</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>2</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t> </m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑣𝑠</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t> </m:t>
+                    </m:r>
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝐻</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>1</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>: </m:t>
+                    </m:r>
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝜇</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>1</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>&lt;</m:t>
+                    </m:r>
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝜇</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>2</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>, </m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑤h𝑒𝑟𝑒</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t> </m:t>
+                    </m:r>
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝜇</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>1</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t> </m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑖𝑠</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t> </m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑡h𝑒</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t> </m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑚𝑒𝑎𝑛</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t> </m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑓𝑜𝑟</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t> </m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝐺𝑃𝑇</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>−3.5 </m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑎𝑛𝑑</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t> </m:t>
+                    </m:r>
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝜇</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>2</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑡h𝑒</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t> </m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑚𝑒𝑎𝑛</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t> </m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑓𝑜𝑟</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t> </m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝐺𝑃𝑇</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>−4.</m:t>
+                    </m:r>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="pt-PT" sz="1100" b="0" i="1">
+                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑡𝑒𝑠𝑡</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t> </m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑠𝑡𝑎𝑡𝑖𝑠𝑡𝑖𝑐</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>:</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑧</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>= </m:t>
+                    </m:r>
+                    <m:f>
+                      <m:fPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:fPr>
+                      <m:num>
+                        <m:sSub>
+                          <m:sSubPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:sSubPr>
+                          <m:e>
+                            <m:r>
+                              <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>𝜇</m:t>
+                            </m:r>
+                          </m:e>
+                          <m:sub>
+                            <m:r>
+                              <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>1</m:t>
+                            </m:r>
+                          </m:sub>
+                        </m:sSub>
+                        <m:r>
+                          <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>−</m:t>
+                        </m:r>
+                        <m:sSub>
+                          <m:sSubPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:sSubPr>
+                          <m:e>
+                            <m:r>
+                              <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>𝜇</m:t>
+                            </m:r>
+                          </m:e>
+                          <m:sub>
+                            <m:r>
+                              <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>2</m:t>
+                            </m:r>
+                          </m:sub>
+                        </m:sSub>
+                      </m:num>
+                      <m:den>
+                        <m:rad>
+                          <m:radPr>
+                            <m:degHide m:val="on"/>
+                            <m:ctrlPr>
+                              <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:radPr>
+                          <m:deg/>
+                          <m:e>
+                            <m:f>
+                              <m:fPr>
+                                <m:ctrlPr>
+                                  <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  </a:rPr>
+                                </m:ctrlPr>
+                              </m:fPr>
+                              <m:num>
+                                <m:sSubSup>
+                                  <m:sSubSupPr>
+                                    <m:ctrlPr>
+                                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                      </a:rPr>
+                                    </m:ctrlPr>
+                                  </m:sSubSupPr>
+                                  <m:e>
+                                    <m:r>
+                                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                      </a:rPr>
+                                      <m:t>𝜎</m:t>
+                                    </m:r>
+                                  </m:e>
+                                  <m:sub>
+                                    <m:r>
+                                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                      </a:rPr>
+                                      <m:t>1</m:t>
+                                    </m:r>
+                                  </m:sub>
+                                  <m:sup>
+                                    <m:r>
+                                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                      </a:rPr>
+                                      <m:t>2</m:t>
+                                    </m:r>
+                                  </m:sup>
+                                </m:sSubSup>
+                              </m:num>
+                              <m:den>
+                                <m:sSub>
+                                  <m:sSubPr>
+                                    <m:ctrlPr>
+                                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                      </a:rPr>
+                                    </m:ctrlPr>
+                                  </m:sSubPr>
+                                  <m:e>
+                                    <m:r>
+                                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                      </a:rPr>
+                                      <m:t>𝑛</m:t>
+                                    </m:r>
+                                  </m:e>
+                                  <m:sub>
+                                    <m:r>
+                                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                      </a:rPr>
+                                      <m:t>1</m:t>
+                                    </m:r>
+                                  </m:sub>
+                                </m:sSub>
+                              </m:den>
+                            </m:f>
+                            <m:r>
+                              <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>+ </m:t>
+                            </m:r>
+                            <m:f>
+                              <m:fPr>
+                                <m:ctrlPr>
+                                  <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  </a:rPr>
+                                </m:ctrlPr>
+                              </m:fPr>
+                              <m:num>
+                                <m:sSubSup>
+                                  <m:sSubSupPr>
+                                    <m:ctrlPr>
+                                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                      </a:rPr>
+                                    </m:ctrlPr>
+                                  </m:sSubSupPr>
+                                  <m:e>
+                                    <m:r>
+                                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                      </a:rPr>
+                                      <m:t>𝜎</m:t>
+                                    </m:r>
+                                  </m:e>
+                                  <m:sub>
+                                    <m:r>
+                                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                      </a:rPr>
+                                      <m:t>2</m:t>
+                                    </m:r>
+                                  </m:sub>
+                                  <m:sup>
+                                    <m:r>
+                                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                      </a:rPr>
+                                      <m:t>2</m:t>
+                                    </m:r>
+                                  </m:sup>
+                                </m:sSubSup>
+                              </m:num>
+                              <m:den>
+                                <m:sSub>
+                                  <m:sSubPr>
+                                    <m:ctrlPr>
+                                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                      </a:rPr>
+                                    </m:ctrlPr>
+                                  </m:sSubPr>
+                                  <m:e>
+                                    <m:r>
+                                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                      </a:rPr>
+                                      <m:t>𝑛</m:t>
+                                    </m:r>
+                                  </m:e>
+                                  <m:sub>
+                                    <m:r>
+                                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                      </a:rPr>
+                                      <m:t>2</m:t>
+                                    </m:r>
+                                  </m:sub>
+                                </m:sSub>
+                              </m:den>
+                            </m:f>
+                          </m:e>
+                        </m:rad>
+                      </m:den>
+                    </m:f>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t> </m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="el-GR" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>~</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t> </m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑁</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>(0,1), </m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑢𝑛𝑑𝑒𝑟</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t> </m:t>
+                    </m:r>
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝐻</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>0 </m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑤h𝑒𝑟𝑒</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t> </m:t>
+                    </m:r>
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝜎</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>1</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑖𝑠</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t> </m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑡h𝑒</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t> </m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑠𝑡𝑑</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>. </m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑑𝑒𝑣</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>. </m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑓𝑜𝑟</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t> </m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝐺𝑃𝑇</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>−3.5, </m:t>
+                    </m:r>
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝜎</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>2</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑡h𝑒</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t> </m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑠𝑡𝑑</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>. </m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑑𝑒𝑣</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>. </m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑓𝑜𝑟</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t> </m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝐺𝑃𝑇</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>−4 </m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑎𝑛𝑑</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t> </m:t>
+                    </m:r>
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑛</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>1</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑎𝑛𝑑</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t> </m:t>
+                    </m:r>
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑛</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>2</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t> </m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑡h𝑒</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t> </m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑛𝑢𝑚𝑏𝑒𝑟</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t> </m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑜𝑓</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t> </m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑜𝑏𝑠𝑒𝑟𝑣𝑎𝑡𝑖𝑜𝑛𝑠</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t> </m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑖𝑛</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t> </m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝐺𝑃𝑇</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>−3.5 </m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑎𝑛𝑑</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t> </m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝐺𝑃𝑇</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>−4 </m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑟𝑒𝑠𝑝𝑒𝑐𝑡𝑖𝑣𝑒𝑙𝑦</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>.</m:t>
+                    </m:r>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t>If the level</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" baseline="0"/>
+                <a:t> of confidence is higher than the p-value then we have statistical evidence that GPT-3.5 is less effective than GPT-4.</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t> 	</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3" name="TextBox 2">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{838A3B77-0E5D-4B13-93E1-5E8B578F5271}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="609600" y="10610850"/>
+              <a:ext cx="10274300" cy="2171700"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:ln w="12700" cmpd="sng">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="1"/>
+                <a:t>Theory</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="1" baseline="0"/>
+                <a:t> behind hypothesis test:</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t>To</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" baseline="0"/>
+                <a:t> test if GPT-4 is better than GPT-3.5, we can test the following hypothesis:</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:pPr/>
+              <a:r>
+                <a:rPr lang="pt-PT" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝐻</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>_</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pt-PT" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>0: </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pt-PT" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝜇_</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pt-PT" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>1=</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pt-PT" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝜇_</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pt-PT" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>2  𝑣𝑠 𝐻_1: </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pt-PT" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝜇_</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pt-PT" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>1</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pt-PT" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>&lt;𝜇_2, 𝑤ℎ𝑒𝑟𝑒 𝜇_1  𝑖𝑠 𝑡ℎ𝑒 𝑚𝑒𝑎𝑛 𝑓𝑜𝑟 𝐺𝑃𝑇−3.5 𝑎𝑛𝑑 𝜇_2 𝑡ℎ𝑒 𝑚𝑒𝑎𝑛 𝑓𝑜𝑟 𝐺𝑃𝑇−4.</a:t>
+              </a:r>
+              <a:endParaRPr lang="pt-PT" sz="1100" b="0" i="1">
+                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr/>
+              <a:r>
+                <a:rPr lang="pt-PT" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑡𝑒𝑠𝑡 𝑠𝑡𝑎𝑡𝑖𝑠𝑡𝑖𝑐:𝑧=  (𝜇_1−𝜇_2)/√((𝜎_1^2)/𝑛_1 + (𝜎_2^2)/𝑛_2 )  </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="el-GR" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>~</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pt-PT" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t> 𝑁(0,1), 𝑢𝑛𝑑𝑒𝑟 𝐻_(0 ) 𝑤ℎ𝑒𝑟𝑒 𝜎_1 𝑖𝑠 𝑡ℎ𝑒 𝑠𝑡𝑑. 𝑑𝑒𝑣. 𝑓𝑜𝑟 𝐺𝑃𝑇−3.5, 𝜎_2 𝑡ℎ𝑒 𝑠𝑡𝑑. 𝑑𝑒𝑣. 𝑓𝑜𝑟 𝐺𝑃𝑇−4 𝑎𝑛𝑑 𝑛_1 𝑎𝑛𝑑 𝑛_2  𝑡ℎ𝑒 𝑛𝑢𝑚𝑏𝑒𝑟 𝑜𝑓 𝑜𝑏𝑠𝑒𝑟𝑣𝑎𝑡𝑖𝑜𝑛𝑠 𝑖𝑛 𝐺𝑃𝑇−3.5 𝑎𝑛𝑑 𝐺𝑃𝑇−4 𝑟𝑒𝑠𝑝𝑒𝑐𝑡𝑖𝑣𝑒𝑙𝑦.</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t>If the level</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" baseline="0"/>
+                <a:t> of confidence is higher than the p-value then we have statistical evidence that GPT-3.5 is less effective than GPT-4.</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t> 	</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4572,7 +6184,7 @@
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A2" s="66" t="s">
+      <c r="A2" s="64" t="s">
         <v>5</v>
       </c>
       <c r="B2" t="s">
@@ -4608,7 +6220,7 @@
         <f t="shared" ref="K2:K29" si="0">C2+E2</f>
         <v>90</v>
       </c>
-      <c r="L2" s="69">
+      <c r="L2" s="67">
         <v>1080</v>
       </c>
       <c r="N2" s="17" t="str">
@@ -4644,7 +6256,7 @@
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A3" s="66"/>
+      <c r="A3" s="64"/>
       <c r="B3" t="s">
         <v>10</v>
       </c>
@@ -4678,7 +6290,7 @@
         <f t="shared" si="0"/>
         <v>90</v>
       </c>
-      <c r="L3" s="69"/>
+      <c r="L3" s="67"/>
       <c r="N3" s="17" t="str">
         <f>A14</f>
         <v>Chemistry</v>
@@ -4712,7 +6324,7 @@
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A4" s="66"/>
+      <c r="A4" s="64"/>
       <c r="B4" t="s">
         <v>11</v>
       </c>
@@ -4746,7 +6358,7 @@
         <f t="shared" si="0"/>
         <v>90</v>
       </c>
-      <c r="L4" s="69"/>
+      <c r="L4" s="67"/>
       <c r="N4" s="17" t="str">
         <f>A17</f>
         <v>Earth Sciences</v>
@@ -4780,7 +6392,7 @@
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A5" s="66"/>
+      <c r="A5" s="64"/>
       <c r="B5" t="s">
         <v>12</v>
       </c>
@@ -4814,7 +6426,7 @@
         <f t="shared" si="0"/>
         <v>90</v>
       </c>
-      <c r="L5" s="69"/>
+      <c r="L5" s="67"/>
       <c r="N5" s="17" t="str">
         <f>A21</f>
         <v>Environmental Science</v>
@@ -4847,7 +6459,7 @@
       </c>
     </row>
     <row r="6" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="66"/>
+      <c r="A6" s="64"/>
       <c r="B6" t="s">
         <v>13</v>
       </c>
@@ -4881,7 +6493,7 @@
         <f t="shared" si="0"/>
         <v>90</v>
       </c>
-      <c r="L6" s="69"/>
+      <c r="L6" s="67"/>
       <c r="N6" s="18" t="str">
         <f>A22</f>
         <v>Physics</v>
@@ -4915,7 +6527,7 @@
       </c>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A7" s="66"/>
+      <c r="A7" s="64"/>
       <c r="B7" t="s">
         <v>16</v>
       </c>
@@ -4949,10 +6561,10 @@
         <f t="shared" si="0"/>
         <v>90</v>
       </c>
-      <c r="L7" s="69"/>
+      <c r="L7" s="67"/>
     </row>
     <row r="8" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="66"/>
+      <c r="A8" s="64"/>
       <c r="B8" t="s">
         <v>17</v>
       </c>
@@ -4986,10 +6598,10 @@
         <f t="shared" si="0"/>
         <v>90</v>
       </c>
-      <c r="L8" s="69"/>
+      <c r="L8" s="67"/>
     </row>
     <row r="9" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="66"/>
+      <c r="A9" s="64"/>
       <c r="B9" t="s">
         <v>22</v>
       </c>
@@ -5023,7 +6635,7 @@
         <f t="shared" si="0"/>
         <v>90</v>
       </c>
-      <c r="L9" s="69"/>
+      <c r="L9" s="67"/>
       <c r="N9" s="19" t="s">
         <v>1</v>
       </c>
@@ -5041,7 +6653,7 @@
       </c>
     </row>
     <row r="10" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="66"/>
+      <c r="A10" s="64"/>
       <c r="B10" t="s">
         <v>24</v>
       </c>
@@ -5075,8 +6687,8 @@
         <f t="shared" si="0"/>
         <v>90</v>
       </c>
-      <c r="L10" s="69"/>
-      <c r="N10" s="63" t="str">
+      <c r="L10" s="67"/>
+      <c r="N10" s="61" t="str">
         <f>$A$2</f>
         <v>Biology</v>
       </c>
@@ -5088,7 +6700,7 @@
         <f>(H2-G2)/G2</f>
         <v>6.0975609756097587E-2</v>
       </c>
-      <c r="Q10" s="58">
+      <c r="Q10" s="70">
         <f>($S$2-$R$2)/$R$2</f>
         <v>5.8282208588957093E-2</v>
       </c>
@@ -5098,7 +6710,7 @@
       </c>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A11" s="66"/>
+      <c r="A11" s="64"/>
       <c r="B11" t="s">
         <v>25</v>
       </c>
@@ -5132,8 +6744,8 @@
         <f t="shared" si="0"/>
         <v>90</v>
       </c>
-      <c r="L11" s="69"/>
-      <c r="N11" s="64"/>
+      <c r="L11" s="67"/>
+      <c r="N11" s="62"/>
       <c r="O11" t="str">
         <f t="shared" ref="O11:O36" si="5">B3</f>
         <v>Biochemistry</v>
@@ -5142,10 +6754,10 @@
         <f t="shared" ref="P11:P37" si="6">(H3-G3)/G3</f>
         <v>0</v>
       </c>
-      <c r="Q11" s="59"/>
+      <c r="Q11" s="71"/>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A12" s="66"/>
+      <c r="A12" s="64"/>
       <c r="B12" t="s">
         <v>31</v>
       </c>
@@ -5179,8 +6791,8 @@
         <f t="shared" si="0"/>
         <v>90</v>
       </c>
-      <c r="L12" s="69"/>
-      <c r="N12" s="64"/>
+      <c r="L12" s="67"/>
+      <c r="N12" s="62"/>
       <c r="O12" t="str">
         <f t="shared" si="5"/>
         <v>Botany</v>
@@ -5189,10 +6801,10 @@
         <f t="shared" si="6"/>
         <v>4.9382716049382665E-2</v>
       </c>
-      <c r="Q12" s="59"/>
+      <c r="Q12" s="71"/>
     </row>
     <row r="13" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="67"/>
+      <c r="A13" s="65"/>
       <c r="B13" s="5" t="s">
         <v>33</v>
       </c>
@@ -5226,8 +6838,8 @@
         <f t="shared" si="0"/>
         <v>90</v>
       </c>
-      <c r="L13" s="69"/>
-      <c r="N13" s="64"/>
+      <c r="L13" s="67"/>
+      <c r="N13" s="62"/>
       <c r="O13" t="str">
         <f t="shared" si="5"/>
         <v>Cell Biology</v>
@@ -5236,10 +6848,10 @@
         <f t="shared" si="6"/>
         <v>4.8192771084337296E-2</v>
       </c>
-      <c r="Q13" s="59"/>
+      <c r="Q13" s="71"/>
     </row>
     <row r="14" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="66" t="s">
+      <c r="A14" s="64" t="s">
         <v>21</v>
       </c>
       <c r="B14" t="s">
@@ -5275,10 +6887,10 @@
         <f t="shared" si="0"/>
         <v>90</v>
       </c>
-      <c r="L14" s="70">
+      <c r="L14" s="68">
         <v>270</v>
       </c>
-      <c r="N14" s="64"/>
+      <c r="N14" s="62"/>
       <c r="O14" t="str">
         <f t="shared" si="5"/>
         <v>Ecology</v>
@@ -5287,7 +6899,7 @@
         <f t="shared" si="6"/>
         <v>8.7500000000000064E-2</v>
       </c>
-      <c r="Q14" s="59"/>
+      <c r="Q14" s="71"/>
       <c r="R14" s="40"/>
       <c r="S14" s="13" t="s">
         <v>54</v>
@@ -5300,7 +6912,7 @@
       <c r="W14" s="2"/>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A15" s="66"/>
+      <c r="A15" s="64"/>
       <c r="B15" t="s">
         <v>29</v>
       </c>
@@ -5334,8 +6946,8 @@
         <f t="shared" si="0"/>
         <v>90</v>
       </c>
-      <c r="L15" s="69"/>
-      <c r="N15" s="64"/>
+      <c r="L15" s="67"/>
+      <c r="N15" s="62"/>
       <c r="O15" t="str">
         <f t="shared" si="5"/>
         <v>Evolutionary Biology</v>
@@ -5344,7 +6956,7 @@
         <f t="shared" si="6"/>
         <v>5.9523809523809548E-2</v>
       </c>
-      <c r="Q15" s="59"/>
+      <c r="Q15" s="71"/>
       <c r="R15" s="41" t="s">
         <v>52</v>
       </c>
@@ -5358,7 +6970,7 @@
       </c>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A16" s="67"/>
+      <c r="A16" s="65"/>
       <c r="B16" s="5" t="s">
         <v>30</v>
       </c>
@@ -5392,8 +7004,8 @@
         <f t="shared" si="0"/>
         <v>90</v>
       </c>
-      <c r="L16" s="71"/>
-      <c r="N16" s="64"/>
+      <c r="L16" s="69"/>
+      <c r="N16" s="62"/>
       <c r="O16" t="str">
         <f t="shared" si="5"/>
         <v>Genetics</v>
@@ -5402,7 +7014,7 @@
         <f t="shared" si="6"/>
         <v>4.878048780487812E-2</v>
       </c>
-      <c r="Q16" s="59"/>
+      <c r="Q16" s="71"/>
       <c r="R16" s="42" t="s">
         <v>53</v>
       </c>
@@ -5416,7 +7028,7 @@
       </c>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A17" s="68" t="s">
+      <c r="A17" s="66" t="s">
         <v>8</v>
       </c>
       <c r="B17" t="s">
@@ -5452,10 +7064,10 @@
         <f t="shared" si="0"/>
         <v>90</v>
       </c>
-      <c r="L17" s="69">
+      <c r="L17" s="67">
         <v>360</v>
       </c>
-      <c r="N17" s="64"/>
+      <c r="N17" s="62"/>
       <c r="O17" t="str">
         <f t="shared" si="5"/>
         <v>Marine Biology</v>
@@ -5464,7 +7076,7 @@
         <f t="shared" si="6"/>
         <v>0.14285714285714288</v>
       </c>
-      <c r="Q17" s="59"/>
+      <c r="Q17" s="71"/>
       <c r="R17" s="43" t="s">
         <v>56</v>
       </c>
@@ -5478,7 +7090,7 @@
       </c>
     </row>
     <row r="18" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="66"/>
+      <c r="A18" s="64"/>
       <c r="B18" t="s">
         <v>18</v>
       </c>
@@ -5512,8 +7124,8 @@
         <f t="shared" si="0"/>
         <v>90</v>
       </c>
-      <c r="L18" s="69"/>
-      <c r="N18" s="64"/>
+      <c r="L18" s="67"/>
+      <c r="N18" s="62"/>
       <c r="O18" t="str">
         <f t="shared" si="5"/>
         <v>Microbiology</v>
@@ -5522,7 +7134,7 @@
         <f t="shared" si="6"/>
         <v>7.5949367088607583E-2</v>
       </c>
-      <c r="Q18" s="59"/>
+      <c r="Q18" s="71"/>
       <c r="R18" s="44" t="s">
         <v>57</v>
       </c>
@@ -5536,7 +7148,7 @@
       </c>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A19" s="66"/>
+      <c r="A19" s="64"/>
       <c r="B19" t="s">
         <v>19</v>
       </c>
@@ -5570,8 +7182,8 @@
         <f t="shared" si="0"/>
         <v>90</v>
       </c>
-      <c r="L19" s="69"/>
-      <c r="N19" s="64"/>
+      <c r="L19" s="67"/>
+      <c r="N19" s="62"/>
       <c r="O19" t="str">
         <f t="shared" si="5"/>
         <v>Neuroscience</v>
@@ -5580,10 +7192,10 @@
         <f t="shared" si="6"/>
         <v>4.8192771084337296E-2</v>
       </c>
-      <c r="Q19" s="59"/>
+      <c r="Q19" s="71"/>
     </row>
     <row r="20" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="67"/>
+      <c r="A20" s="65"/>
       <c r="B20" s="5" t="s">
         <v>27</v>
       </c>
@@ -5617,8 +7229,8 @@
         <f t="shared" si="0"/>
         <v>90</v>
       </c>
-      <c r="L20" s="69"/>
-      <c r="N20" s="64"/>
+      <c r="L20" s="67"/>
+      <c r="N20" s="62"/>
       <c r="O20" t="str">
         <f t="shared" si="5"/>
         <v>Reproductive Biology</v>
@@ -5627,7 +7239,7 @@
         <f t="shared" si="6"/>
         <v>6.3291139240506361E-2</v>
       </c>
-      <c r="Q20" s="59"/>
+      <c r="Q20" s="71"/>
     </row>
     <row r="21" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A21" s="6" t="s">
@@ -5669,7 +7281,7 @@
       <c r="L21" s="11">
         <v>90</v>
       </c>
-      <c r="N21" s="64"/>
+      <c r="N21" s="62"/>
       <c r="O21" s="5" t="str">
         <f t="shared" si="5"/>
         <v>Zoology</v>
@@ -5678,7 +7290,7 @@
         <f t="shared" si="6"/>
         <v>2.5000000000000036E-2</v>
       </c>
-      <c r="Q21" s="59"/>
+      <c r="Q21" s="71"/>
       <c r="R21" s="40"/>
       <c r="S21" s="13" t="s">
         <v>62</v>
@@ -5688,7 +7300,7 @@
       </c>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A22" s="66" t="s">
+      <c r="A22" s="64" t="s">
         <v>3</v>
       </c>
       <c r="B22" t="s">
@@ -5724,10 +7336,10 @@
         <f t="shared" si="0"/>
         <v>90</v>
       </c>
-      <c r="L22" s="69">
+      <c r="L22" s="67">
         <v>720</v>
       </c>
-      <c r="N22" s="64" t="str">
+      <c r="N22" s="62" t="str">
         <f>$A$14</f>
         <v>Chemistry</v>
       </c>
@@ -5739,7 +7351,7 @@
         <f t="shared" si="6"/>
         <v>2.3809523809523843E-2</v>
       </c>
-      <c r="Q22" s="59">
+      <c r="Q22" s="71">
         <f>($S$3-$R$3)/$R$3</f>
         <v>3.2653061224489723E-2</v>
       </c>
@@ -5756,7 +7368,7 @@
       </c>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A23" s="66"/>
+      <c r="A23" s="64"/>
       <c r="B23" t="s">
         <v>6</v>
       </c>
@@ -5790,8 +7402,8 @@
         <f t="shared" si="0"/>
         <v>90</v>
       </c>
-      <c r="L23" s="69"/>
-      <c r="N23" s="64"/>
+      <c r="L23" s="67"/>
+      <c r="N23" s="62"/>
       <c r="O23" t="str">
         <f t="shared" si="5"/>
         <v>Organic Chemistry</v>
@@ -5800,7 +7412,7 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="Q23" s="59"/>
+      <c r="Q23" s="71"/>
       <c r="R23" s="42" t="s">
         <v>59</v>
       </c>
@@ -5814,7 +7426,7 @@
       </c>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A24" s="66"/>
+      <c r="A24" s="64"/>
       <c r="B24" t="s">
         <v>9</v>
       </c>
@@ -5848,8 +7460,8 @@
         <f t="shared" si="0"/>
         <v>90</v>
       </c>
-      <c r="L24" s="69"/>
-      <c r="N24" s="64"/>
+      <c r="L24" s="67"/>
+      <c r="N24" s="62"/>
       <c r="O24" s="5" t="str">
         <f t="shared" si="5"/>
         <v>Physical Chemistry</v>
@@ -5858,7 +7470,7 @@
         <f t="shared" si="6"/>
         <v>7.5949367088607583E-2</v>
       </c>
-      <c r="Q24" s="59"/>
+      <c r="Q24" s="71"/>
       <c r="R24" s="43" t="s">
         <v>60</v>
       </c>
@@ -5872,7 +7484,7 @@
       </c>
     </row>
     <row r="25" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="66"/>
+      <c r="A25" s="64"/>
       <c r="B25" t="s">
         <v>14</v>
       </c>
@@ -5906,8 +7518,8 @@
         <f t="shared" si="0"/>
         <v>90</v>
       </c>
-      <c r="L25" s="69"/>
-      <c r="N25" s="64" t="str">
+      <c r="L25" s="67"/>
+      <c r="N25" s="62" t="str">
         <f>$A$17</f>
         <v>Earth Sciences</v>
       </c>
@@ -5919,7 +7531,7 @@
         <f t="shared" si="6"/>
         <v>1.1494252873563178E-2</v>
       </c>
-      <c r="Q25" s="59">
+      <c r="Q25" s="71">
         <f>($S$4-$R$4)/$R$4</f>
         <v>5.1829268292682987E-2</v>
       </c>
@@ -5936,7 +7548,7 @@
       </c>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A26" s="66"/>
+      <c r="A26" s="64"/>
       <c r="B26" t="s">
         <v>23</v>
       </c>
@@ -5970,8 +7582,8 @@
         <f t="shared" si="0"/>
         <v>90</v>
       </c>
-      <c r="L26" s="69"/>
-      <c r="N26" s="64"/>
+      <c r="L26" s="67"/>
+      <c r="N26" s="62"/>
       <c r="O26" t="str">
         <f t="shared" si="5"/>
         <v>Geography</v>
@@ -5980,10 +7592,10 @@
         <f t="shared" si="6"/>
         <v>0.1125000000000001</v>
       </c>
-      <c r="Q26" s="59"/>
+      <c r="Q26" s="71"/>
     </row>
     <row r="27" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="66"/>
+      <c r="A27" s="64"/>
       <c r="B27" t="s">
         <v>26</v>
       </c>
@@ -6017,8 +7629,8 @@
         <f t="shared" si="0"/>
         <v>90</v>
       </c>
-      <c r="L27" s="69"/>
-      <c r="N27" s="64"/>
+      <c r="L27" s="67"/>
+      <c r="N27" s="62"/>
       <c r="O27" t="str">
         <f t="shared" si="5"/>
         <v>Geology</v>
@@ -6027,10 +7639,10 @@
         <f t="shared" si="6"/>
         <v>7.4074074074074056E-2</v>
       </c>
-      <c r="Q27" s="59"/>
+      <c r="Q27" s="71"/>
     </row>
     <row r="28" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="66"/>
+      <c r="A28" s="64"/>
       <c r="B28" t="s">
         <v>28</v>
       </c>
@@ -6064,8 +7676,8 @@
         <f t="shared" si="0"/>
         <v>90</v>
       </c>
-      <c r="L28" s="69"/>
-      <c r="N28" s="64"/>
+      <c r="L28" s="67"/>
+      <c r="N28" s="62"/>
       <c r="O28" s="5" t="str">
         <f t="shared" si="5"/>
         <v>Oceanography</v>
@@ -6074,7 +7686,7 @@
         <f t="shared" si="6"/>
         <v>1.250000000000008E-2</v>
       </c>
-      <c r="Q28" s="59"/>
+      <c r="Q28" s="71"/>
       <c r="R28" s="40"/>
       <c r="S28" s="13" t="s">
         <v>73</v>
@@ -6084,7 +7696,7 @@
       </c>
     </row>
     <row r="29" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="66"/>
+      <c r="A29" s="64"/>
       <c r="B29" t="s">
         <v>32</v>
       </c>
@@ -6118,7 +7730,7 @@
         <f t="shared" si="0"/>
         <v>90</v>
       </c>
-      <c r="L29" s="69"/>
+      <c r="L29" s="67"/>
       <c r="N29" s="22" t="str">
         <f>A21</f>
         <v>Environmental Science</v>
@@ -6146,10 +7758,10 @@
       </c>
     </row>
     <row r="30" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A30" s="62" t="s">
+      <c r="A30" s="60" t="s">
         <v>46</v>
       </c>
-      <c r="B30" s="62"/>
+      <c r="B30" s="60"/>
       <c r="C30" s="14">
         <f>SUM(C2:C29)</f>
         <v>2291</v>
@@ -6190,7 +7802,7 @@
         <f>SUM(L2:L29)</f>
         <v>2520</v>
       </c>
-      <c r="N30" s="64" t="str">
+      <c r="N30" s="62" t="str">
         <f>$A$22</f>
         <v>Physics</v>
       </c>
@@ -6202,7 +7814,7 @@
         <f t="shared" si="6"/>
         <v>-2.3529411764705799E-2</v>
       </c>
-      <c r="Q30" s="59">
+      <c r="Q30" s="71">
         <f>($S$6-$R$6)/$R$6</f>
         <v>6.1443932411674375E-2</v>
       </c>
@@ -6219,7 +7831,7 @@
       </c>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="N31" s="64"/>
+      <c r="N31" s="62"/>
       <c r="O31" t="str">
         <f>B23</f>
         <v>Astronomy</v>
@@ -6228,7 +7840,7 @@
         <f t="shared" si="6"/>
         <v>0.10126582278481015</v>
       </c>
-      <c r="Q31" s="59"/>
+      <c r="Q31" s="71"/>
       <c r="R31" s="43" t="s">
         <v>67</v>
       </c>
@@ -6240,7 +7852,7 @@
       </c>
     </row>
     <row r="32" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="N32" s="64"/>
+      <c r="N32" s="62"/>
       <c r="O32" t="str">
         <f t="shared" si="5"/>
         <v>Atomic Physics</v>
@@ -6249,7 +7861,7 @@
         <f t="shared" si="6"/>
         <v>2.4096385542168589E-2</v>
       </c>
-      <c r="Q32" s="59"/>
+      <c r="Q32" s="71"/>
       <c r="R32" s="44" t="s">
         <v>69</v>
       </c>
@@ -6263,7 +7875,7 @@
       </c>
     </row>
     <row r="33" spans="14:17" x14ac:dyDescent="0.35">
-      <c r="N33" s="64"/>
+      <c r="N33" s="62"/>
       <c r="O33" t="str">
         <f>B25</f>
         <v>Electromagnetism</v>
@@ -6272,10 +7884,10 @@
         <f t="shared" si="6"/>
         <v>4.8192771084337296E-2</v>
       </c>
-      <c r="Q33" s="59"/>
+      <c r="Q33" s="71"/>
     </row>
     <row r="34" spans="14:17" x14ac:dyDescent="0.35">
-      <c r="N34" s="64"/>
+      <c r="N34" s="62"/>
       <c r="O34" t="str">
         <f t="shared" si="5"/>
         <v>Mechanics</v>
@@ -6284,10 +7896,10 @@
         <f t="shared" si="6"/>
         <v>7.2289156626506007E-2</v>
       </c>
-      <c r="Q34" s="59"/>
+      <c r="Q34" s="71"/>
     </row>
     <row r="35" spans="14:17" x14ac:dyDescent="0.35">
-      <c r="N35" s="64"/>
+      <c r="N35" s="62"/>
       <c r="O35" t="str">
         <f>B27</f>
         <v>Nuclear and Particle Physics</v>
@@ -6296,10 +7908,10 @@
         <f t="shared" si="6"/>
         <v>3.5294117647058816E-2</v>
       </c>
-      <c r="Q35" s="59"/>
+      <c r="Q35" s="71"/>
     </row>
     <row r="36" spans="14:17" x14ac:dyDescent="0.35">
-      <c r="N36" s="64"/>
+      <c r="N36" s="62"/>
       <c r="O36" t="str">
         <f t="shared" si="5"/>
         <v>Optics</v>
@@ -6308,10 +7920,10 @@
         <f t="shared" si="6"/>
         <v>0.19444444444444445</v>
       </c>
-      <c r="Q36" s="59"/>
+      <c r="Q36" s="71"/>
     </row>
     <row r="37" spans="14:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="N37" s="65"/>
+      <c r="N37" s="63"/>
       <c r="O37" t="str">
         <f>B29</f>
         <v>Thermodynamics</v>
@@ -6320,13 +7932,13 @@
         <f t="shared" si="6"/>
         <v>6.1728395061728419E-2</v>
       </c>
-      <c r="Q37" s="60"/>
+      <c r="Q37" s="72"/>
     </row>
     <row r="38" spans="14:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="N38" s="61" t="s">
+      <c r="N38" s="73" t="s">
         <v>50</v>
       </c>
-      <c r="O38" s="62"/>
+      <c r="O38" s="60"/>
       <c r="P38" s="27">
         <f>AVERAGE(P10:P37)</f>
         <v>5.4375669953751302E-2</v>
@@ -6341,6 +7953,11 @@
     <sortCondition ref="A1:A29"/>
   </sortState>
   <mergeCells count="18">
+    <mergeCell ref="Q10:Q21"/>
+    <mergeCell ref="Q22:Q24"/>
+    <mergeCell ref="Q25:Q28"/>
+    <mergeCell ref="Q30:Q37"/>
+    <mergeCell ref="N38:O38"/>
     <mergeCell ref="A30:B30"/>
     <mergeCell ref="N10:N21"/>
     <mergeCell ref="N22:N24"/>
@@ -6354,11 +7971,6 @@
     <mergeCell ref="L14:L16"/>
     <mergeCell ref="L17:L20"/>
     <mergeCell ref="L22:L29"/>
-    <mergeCell ref="Q10:Q21"/>
-    <mergeCell ref="Q22:Q24"/>
-    <mergeCell ref="Q25:Q28"/>
-    <mergeCell ref="Q30:Q37"/>
-    <mergeCell ref="N38:O38"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6368,26 +7980,24 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A6166E1-4133-42B1-83E2-F93F4C3C990A}">
-  <dimension ref="A8:AB55"/>
+  <dimension ref="A8:AB97"/>
   <sheetViews>
-    <sheetView topLeftCell="G31" workbookViewId="0">
-      <selection activeCell="B41" sqref="B41:T47"/>
+    <sheetView tabSelected="1" topLeftCell="D84" workbookViewId="0">
+      <selection activeCell="I87" sqref="I87:K88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="29.08984375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.453125" customWidth="1"/>
-    <col min="4" max="4" width="10.26953125" customWidth="1"/>
-    <col min="5" max="5" width="12" customWidth="1"/>
-    <col min="6" max="6" width="9.08984375" customWidth="1"/>
+    <col min="4" max="4" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="11.81640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.54296875" customWidth="1"/>
     <col min="8" max="8" width="7.1796875" customWidth="1"/>
-    <col min="9" max="9" width="9.7265625" customWidth="1"/>
-    <col min="10" max="10" width="10.26953125" customWidth="1"/>
-    <col min="11" max="11" width="7.90625" customWidth="1"/>
-    <col min="12" max="12" width="8.7265625" customWidth="1"/>
-    <col min="13" max="13" width="10.54296875" customWidth="1"/>
+    <col min="9" max="9" width="18.36328125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.08984375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="11.81640625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="13.90625" customWidth="1"/>
     <col min="15" max="15" width="11" customWidth="1"/>
     <col min="16" max="16" width="7.90625" bestFit="1" customWidth="1"/>
@@ -6420,64 +8030,64 @@
       <c r="AB8" s="4"/>
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="B9" s="74" t="s">
+      <c r="B9" s="77" t="s">
         <v>80</v>
       </c>
-      <c r="C9" s="78" t="s">
+      <c r="C9" s="79" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="77"/>
-      <c r="E9" s="76" t="s">
+      <c r="D9" s="75"/>
+      <c r="E9" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="F9" s="77"/>
-      <c r="G9" s="76" t="s">
+      <c r="F9" s="75"/>
+      <c r="G9" s="74" t="s">
         <v>11</v>
       </c>
-      <c r="H9" s="77"/>
-      <c r="I9" s="76" t="s">
+      <c r="H9" s="75"/>
+      <c r="I9" s="74" t="s">
         <v>12</v>
       </c>
-      <c r="J9" s="77"/>
-      <c r="K9" s="76" t="s">
+      <c r="J9" s="75"/>
+      <c r="K9" s="74" t="s">
         <v>13</v>
       </c>
-      <c r="L9" s="76"/>
-      <c r="M9" s="76" t="s">
+      <c r="L9" s="75"/>
+      <c r="M9" s="74" t="s">
         <v>16</v>
       </c>
-      <c r="N9" s="76"/>
-      <c r="O9" s="76" t="s">
+      <c r="N9" s="75"/>
+      <c r="O9" s="74" t="s">
         <v>17</v>
       </c>
-      <c r="P9" s="76"/>
-      <c r="Q9" s="76" t="s">
+      <c r="P9" s="75"/>
+      <c r="Q9" s="74" t="s">
         <v>22</v>
       </c>
-      <c r="R9" s="76"/>
-      <c r="S9" s="76" t="s">
+      <c r="R9" s="75"/>
+      <c r="S9" s="74" t="s">
         <v>24</v>
       </c>
-      <c r="T9" s="76"/>
-      <c r="U9" s="76" t="s">
+      <c r="T9" s="75"/>
+      <c r="U9" s="74" t="s">
         <v>25</v>
       </c>
-      <c r="V9" s="76"/>
-      <c r="W9" s="76" t="s">
+      <c r="V9" s="75"/>
+      <c r="W9" s="74" t="s">
         <v>31</v>
       </c>
-      <c r="X9" s="76"/>
-      <c r="Y9" s="76" t="s">
+      <c r="X9" s="75"/>
+      <c r="Y9" s="74" t="s">
         <v>33</v>
       </c>
-      <c r="Z9" s="76"/>
-      <c r="AA9" s="72" t="s">
+      <c r="Z9" s="75"/>
+      <c r="AA9" s="83" t="s">
         <v>5</v>
       </c>
-      <c r="AB9" s="73"/>
+      <c r="AB9" s="84"/>
     </row>
     <row r="10" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B10" s="75"/>
+      <c r="B10" s="78"/>
       <c r="C10" s="50" t="s">
         <v>81</v>
       </c>
@@ -6505,49 +8115,49 @@
       <c r="K10" s="51" t="s">
         <v>81</v>
       </c>
-      <c r="L10" s="51" t="s">
+      <c r="L10" s="53" t="s">
         <v>82</v>
       </c>
       <c r="M10" s="51" t="s">
         <v>81</v>
       </c>
-      <c r="N10" s="51" t="s">
+      <c r="N10" s="53" t="s">
         <v>82</v>
       </c>
       <c r="O10" s="51" t="s">
         <v>81</v>
       </c>
-      <c r="P10" s="51" t="s">
+      <c r="P10" s="53" t="s">
         <v>82</v>
       </c>
       <c r="Q10" s="51" t="s">
         <v>81</v>
       </c>
-      <c r="R10" s="51" t="s">
+      <c r="R10" s="53" t="s">
         <v>82</v>
       </c>
       <c r="S10" s="51" t="s">
         <v>81</v>
       </c>
-      <c r="T10" s="51" t="s">
+      <c r="T10" s="53" t="s">
         <v>82</v>
       </c>
       <c r="U10" s="51" t="s">
         <v>81</v>
       </c>
-      <c r="V10" s="51" t="s">
+      <c r="V10" s="53" t="s">
         <v>82</v>
       </c>
       <c r="W10" s="51" t="s">
         <v>81</v>
       </c>
-      <c r="X10" s="51" t="s">
+      <c r="X10" s="53" t="s">
         <v>82</v>
       </c>
       <c r="Y10" s="51" t="s">
         <v>81</v>
       </c>
-      <c r="Z10" s="51" t="s">
+      <c r="Z10" s="53" t="s">
         <v>82</v>
       </c>
       <c r="AA10" s="51" t="s">
@@ -6588,56 +8198,56 @@
       <c r="K11">
         <v>90</v>
       </c>
-      <c r="L11">
+      <c r="L11" s="54">
         <v>90</v>
       </c>
       <c r="M11">
         <v>90</v>
       </c>
-      <c r="N11">
+      <c r="N11" s="54">
         <v>90</v>
       </c>
       <c r="O11">
         <v>90</v>
       </c>
-      <c r="P11">
+      <c r="P11" s="54">
         <v>90</v>
       </c>
       <c r="Q11">
         <v>90</v>
       </c>
-      <c r="R11">
+      <c r="R11" s="54">
         <v>90</v>
       </c>
       <c r="S11">
         <v>90</v>
       </c>
-      <c r="T11">
+      <c r="T11" s="54">
         <v>90</v>
       </c>
       <c r="U11">
         <v>90</v>
       </c>
-      <c r="V11">
+      <c r="V11" s="54">
         <v>90</v>
       </c>
       <c r="W11">
         <v>90</v>
       </c>
-      <c r="X11">
+      <c r="X11" s="54">
         <v>90</v>
       </c>
       <c r="Y11">
         <v>90</v>
       </c>
-      <c r="Z11">
+      <c r="Z11" s="54">
         <v>90</v>
       </c>
       <c r="AA11">
         <v>1080</v>
       </c>
       <c r="AB11" s="34">
-        <v>10180</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.35">
@@ -6680,7 +8290,7 @@
         <f>'General Analysis'!C6/90</f>
         <v>0.88888888888888884</v>
       </c>
-      <c r="L12">
+      <c r="L12" s="54">
         <f>'General Analysis'!D6/90</f>
         <v>0.96666666666666667</v>
       </c>
@@ -6688,7 +8298,7 @@
         <f>'General Analysis'!C7/90</f>
         <v>0.93333333333333335</v>
       </c>
-      <c r="N12">
+      <c r="N12" s="54">
         <f>'General Analysis'!D7/90</f>
         <v>0.98888888888888893</v>
       </c>
@@ -6696,7 +8306,7 @@
         <f>'General Analysis'!C8/90</f>
         <v>0.91111111111111109</v>
       </c>
-      <c r="P12">
+      <c r="P12" s="54">
         <f>'General Analysis'!D8/90</f>
         <v>0.9555555555555556</v>
       </c>
@@ -6704,7 +8314,7 @@
         <f>'General Analysis'!C9/90</f>
         <v>0.85555555555555551</v>
       </c>
-      <c r="R12">
+      <c r="R12" s="54">
         <f>'General Analysis'!D9/90</f>
         <v>0.97777777777777775</v>
       </c>
@@ -6712,7 +8322,7 @@
         <f>'General Analysis'!C10/90</f>
         <v>0.87777777777777777</v>
       </c>
-      <c r="T12">
+      <c r="T12" s="54">
         <f>'General Analysis'!D10/90</f>
         <v>0.94444444444444442</v>
       </c>
@@ -6720,7 +8330,7 @@
         <f>'General Analysis'!C11/90</f>
         <v>0.92222222222222228</v>
       </c>
-      <c r="V12">
+      <c r="V12" s="54">
         <f>'General Analysis'!D11/90</f>
         <v>0.96666666666666667</v>
       </c>
@@ -6728,7 +8338,7 @@
         <f>'General Analysis'!C12/90</f>
         <v>0.87777777777777777</v>
       </c>
-      <c r="X12">
+      <c r="X12" s="54">
         <f>'General Analysis'!D12/90</f>
         <v>0.93333333333333335</v>
       </c>
@@ -6736,7 +8346,7 @@
         <f>'General Analysis'!C13/90</f>
         <v>0.88888888888888884</v>
       </c>
-      <c r="Z12">
+      <c r="Z12" s="54">
         <f>'General Analysis'!D13/90</f>
         <v>0.91111111111111109</v>
       </c>
@@ -6789,7 +8399,7 @@
         <f t="shared" si="0"/>
         <v>80</v>
       </c>
-      <c r="L13">
+      <c r="L13" s="54">
         <f t="shared" si="0"/>
         <v>87</v>
       </c>
@@ -6797,7 +8407,7 @@
         <f t="shared" si="0"/>
         <v>84</v>
       </c>
-      <c r="N13">
+      <c r="N13" s="54">
         <f t="shared" si="0"/>
         <v>89</v>
       </c>
@@ -6805,7 +8415,7 @@
         <f t="shared" si="0"/>
         <v>82</v>
       </c>
-      <c r="P13">
+      <c r="P13" s="54">
         <f t="shared" si="0"/>
         <v>86</v>
       </c>
@@ -6813,7 +8423,7 @@
         <f t="shared" si="0"/>
         <v>77</v>
       </c>
-      <c r="R13">
+      <c r="R13" s="54">
         <f t="shared" si="0"/>
         <v>88</v>
       </c>
@@ -6821,7 +8431,7 @@
         <f t="shared" si="0"/>
         <v>79</v>
       </c>
-      <c r="T13">
+      <c r="T13" s="54">
         <f t="shared" si="0"/>
         <v>85</v>
       </c>
@@ -6829,7 +8439,7 @@
         <f t="shared" si="0"/>
         <v>83</v>
       </c>
-      <c r="V13">
+      <c r="V13" s="54">
         <f t="shared" si="0"/>
         <v>87</v>
       </c>
@@ -6837,7 +8447,7 @@
         <f t="shared" si="0"/>
         <v>79</v>
       </c>
-      <c r="X13">
+      <c r="X13" s="54">
         <f t="shared" si="0"/>
         <v>84</v>
       </c>
@@ -6845,7 +8455,7 @@
         <f t="shared" si="0"/>
         <v>80</v>
       </c>
-      <c r="Z13">
+      <c r="Z13" s="54">
         <f t="shared" si="0"/>
         <v>82</v>
       </c>
@@ -6855,7 +8465,7 @@
       </c>
       <c r="AB13" s="34">
         <f t="shared" si="0"/>
-        <v>9755.8333333333339</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="14" spans="1:28" x14ac:dyDescent="0.35">
@@ -6898,7 +8508,7 @@
         <f t="shared" si="1"/>
         <v>8.8888888888888928</v>
       </c>
-      <c r="L14">
+      <c r="L14" s="54">
         <f t="shared" si="1"/>
         <v>2.8999999999999995</v>
       </c>
@@ -6906,7 +8516,7 @@
         <f t="shared" si="1"/>
         <v>5.5999999999999988</v>
       </c>
-      <c r="N14">
+      <c r="N14" s="54">
         <f t="shared" si="1"/>
         <v>0.98888888888888538</v>
       </c>
@@ -6914,7 +8524,7 @@
         <f t="shared" si="1"/>
         <v>7.2888888888888905</v>
       </c>
-      <c r="P14">
+      <c r="P14" s="54">
         <f t="shared" si="1"/>
         <v>3.8222222222222184</v>
       </c>
@@ -6922,7 +8532,7 @@
         <f t="shared" si="1"/>
         <v>11.122222222222225</v>
       </c>
-      <c r="R14">
+      <c r="R14" s="54">
         <f t="shared" si="1"/>
         <v>1.9555555555555584</v>
       </c>
@@ -6930,7 +8540,7 @@
         <f t="shared" si="1"/>
         <v>9.6555555555555568</v>
       </c>
-      <c r="T14">
+      <c r="T14" s="54">
         <f t="shared" si="1"/>
         <v>4.7222222222222241</v>
       </c>
@@ -6938,7 +8548,7 @@
         <f t="shared" si="1"/>
         <v>6.4555555555555513</v>
       </c>
-      <c r="V14">
+      <c r="V14" s="54">
         <f t="shared" si="1"/>
         <v>2.8999999999999995</v>
       </c>
@@ -6946,7 +8556,7 @@
         <f t="shared" si="1"/>
         <v>9.6555555555555568</v>
       </c>
-      <c r="X14">
+      <c r="X14" s="54">
         <f t="shared" si="1"/>
         <v>5.5999999999999988</v>
       </c>
@@ -6954,7 +8564,7 @@
         <f t="shared" si="1"/>
         <v>8.8888888888888928</v>
       </c>
-      <c r="Z14">
+      <c r="Z14" s="54">
         <f t="shared" si="1"/>
         <v>7.2888888888888905</v>
       </c>
@@ -6964,7 +8574,7 @@
       </c>
       <c r="AB14" s="34">
         <f t="shared" si="1"/>
-        <v>406.4930555555552</v>
+        <v>43.124999999999964</v>
       </c>
     </row>
     <row r="15" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -7008,7 +8618,7 @@
         <f t="shared" si="2"/>
         <v>2.98142396999972</v>
       </c>
-      <c r="L15" s="4">
+      <c r="L15" s="55">
         <f t="shared" si="2"/>
         <v>1.70293863659264</v>
       </c>
@@ -7016,7 +8626,7 @@
         <f t="shared" si="2"/>
         <v>2.3664319132398464</v>
       </c>
-      <c r="N15" s="4">
+      <c r="N15" s="55">
         <f t="shared" si="2"/>
         <v>0.99442892601175137</v>
       </c>
@@ -7024,7 +8634,7 @@
         <f t="shared" si="2"/>
         <v>2.6997942308422118</v>
       </c>
-      <c r="P15" s="4">
+      <c r="P15" s="55">
         <f t="shared" si="2"/>
         <v>1.9550504398153563</v>
       </c>
@@ -7032,7 +8642,7 @@
         <f t="shared" si="2"/>
         <v>3.3349995835415371</v>
       </c>
-      <c r="R15" s="4">
+      <c r="R15" s="55">
         <f t="shared" si="2"/>
         <v>1.3984117975602031</v>
       </c>
@@ -7040,7 +8650,7 @@
         <f t="shared" si="2"/>
         <v>3.1073389830457114</v>
       </c>
-      <c r="T15" s="4">
+      <c r="T15" s="55">
         <f t="shared" si="2"/>
         <v>2.1730674684008835</v>
       </c>
@@ -7048,7 +8658,7 @@
         <f t="shared" si="2"/>
         <v>2.5407785333546</v>
       </c>
-      <c r="V15" s="4">
+      <c r="V15" s="55">
         <f t="shared" si="2"/>
         <v>1.70293863659264</v>
       </c>
@@ -7056,7 +8666,7 @@
         <f t="shared" si="2"/>
         <v>3.1073389830457114</v>
       </c>
-      <c r="X15" s="4">
+      <c r="X15" s="55">
         <f t="shared" si="2"/>
         <v>2.3664319132398464</v>
       </c>
@@ -7064,7 +8674,7 @@
         <f t="shared" si="2"/>
         <v>2.98142396999972</v>
       </c>
-      <c r="Z15" s="4">
+      <c r="Z15" s="55">
         <f t="shared" si="2"/>
         <v>2.6997942308422118</v>
       </c>
@@ -7074,33 +8684,33 @@
       </c>
       <c r="AB15" s="35">
         <f t="shared" si="2"/>
-        <v>20.161672935437554</v>
+        <v>6.5669627682818454</v>
       </c>
     </row>
     <row r="16" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="17" spans="2:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="82" t="s">
+      <c r="B17" s="80" t="s">
         <v>83</v>
       </c>
-      <c r="C17" s="78" t="s">
+      <c r="C17" s="79" t="s">
         <v>20</v>
       </c>
-      <c r="D17" s="77"/>
-      <c r="E17" s="79" t="s">
+      <c r="D17" s="75"/>
+      <c r="E17" s="81" t="s">
         <v>29</v>
       </c>
-      <c r="F17" s="80"/>
-      <c r="G17" s="79" t="s">
+      <c r="F17" s="82"/>
+      <c r="G17" s="81" t="s">
         <v>30</v>
       </c>
-      <c r="H17" s="80"/>
-      <c r="I17" s="76" t="s">
+      <c r="H17" s="82"/>
+      <c r="I17" s="74" t="s">
         <v>84</v>
       </c>
-      <c r="J17" s="81"/>
+      <c r="J17" s="76"/>
     </row>
     <row r="18" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B18" s="75"/>
+      <c r="B18" s="78"/>
       <c r="C18" s="50" t="s">
         <v>81</v>
       </c>
@@ -7305,32 +8915,32 @@
     </row>
     <row r="24" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="25" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B25" s="82" t="s">
+      <c r="B25" s="80" t="s">
         <v>85</v>
       </c>
-      <c r="C25" s="78" t="s">
+      <c r="C25" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="D25" s="77"/>
-      <c r="E25" s="76" t="s">
+      <c r="D25" s="75"/>
+      <c r="E25" s="74" t="s">
         <v>18</v>
       </c>
-      <c r="F25" s="77"/>
-      <c r="G25" s="76" t="s">
+      <c r="F25" s="75"/>
+      <c r="G25" s="74" t="s">
         <v>19</v>
       </c>
-      <c r="H25" s="77"/>
-      <c r="I25" s="76" t="s">
+      <c r="H25" s="75"/>
+      <c r="I25" s="74" t="s">
         <v>27</v>
       </c>
-      <c r="J25" s="77"/>
-      <c r="K25" s="76" t="s">
+      <c r="J25" s="75"/>
+      <c r="K25" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="L25" s="81"/>
+      <c r="L25" s="76"/>
     </row>
     <row r="26" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B26" s="75"/>
+      <c r="B26" s="78"/>
       <c r="C26" s="50" t="s">
         <v>81</v>
       </c>
@@ -7580,16 +9190,16 @@
     </row>
     <row r="32" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="33" spans="2:20" x14ac:dyDescent="0.35">
-      <c r="B33" s="82" t="s">
+      <c r="B33" s="80" t="s">
         <v>86</v>
       </c>
-      <c r="C33" s="78" t="s">
+      <c r="C33" s="79" t="s">
         <v>87</v>
       </c>
-      <c r="D33" s="81"/>
+      <c r="D33" s="76"/>
     </row>
     <row r="34" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B34" s="75"/>
+      <c r="B34" s="78"/>
       <c r="C34" s="50" t="s">
         <v>81</v>
       </c>
@@ -7662,48 +9272,48 @@
     </row>
     <row r="40" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="41" spans="2:20" x14ac:dyDescent="0.35">
-      <c r="B41" s="82" t="s">
+      <c r="B41" s="80" t="s">
         <v>88</v>
       </c>
-      <c r="C41" s="78" t="s">
+      <c r="C41" s="79" t="s">
         <v>2</v>
       </c>
-      <c r="D41" s="77"/>
-      <c r="E41" s="76" t="s">
+      <c r="D41" s="75"/>
+      <c r="E41" s="74" t="s">
         <v>6</v>
       </c>
-      <c r="F41" s="77"/>
-      <c r="G41" s="76" t="s">
+      <c r="F41" s="75"/>
+      <c r="G41" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="H41" s="77"/>
-      <c r="I41" s="76" t="s">
+      <c r="H41" s="75"/>
+      <c r="I41" s="74" t="s">
         <v>14</v>
       </c>
-      <c r="J41" s="77"/>
-      <c r="K41" s="76" t="s">
+      <c r="J41" s="75"/>
+      <c r="K41" s="74" t="s">
         <v>23</v>
       </c>
-      <c r="L41" s="77"/>
-      <c r="M41" s="76" t="s">
+      <c r="L41" s="75"/>
+      <c r="M41" s="74" t="s">
         <v>26</v>
       </c>
-      <c r="N41" s="77"/>
-      <c r="O41" s="76" t="s">
+      <c r="N41" s="75"/>
+      <c r="O41" s="74" t="s">
         <v>28</v>
       </c>
-      <c r="P41" s="77"/>
-      <c r="Q41" s="76" t="s">
+      <c r="P41" s="75"/>
+      <c r="Q41" s="74" t="s">
         <v>32</v>
       </c>
-      <c r="R41" s="77"/>
-      <c r="S41" s="76" t="s">
+      <c r="R41" s="75"/>
+      <c r="S41" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="T41" s="81"/>
+      <c r="T41" s="76"/>
     </row>
     <row r="42" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B42" s="75"/>
+      <c r="B42" s="78"/>
       <c r="C42" s="50" t="s">
         <v>89</v>
       </c>
@@ -8128,16 +9738,16 @@
     </row>
     <row r="48" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="49" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B49" s="74" t="s">
-        <v>90</v>
-      </c>
-      <c r="C49" s="78" t="s">
+      <c r="B49" s="77" t="s">
+        <v>90</v>
+      </c>
+      <c r="C49" s="79" t="s">
         <v>91</v>
       </c>
-      <c r="D49" s="81"/>
+      <c r="D49" s="76"/>
     </row>
     <row r="50" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B50" s="75"/>
+      <c r="B50" s="78"/>
       <c r="C50" s="50" t="s">
         <v>81</v>
       </c>
@@ -8208,33 +9818,581 @@
         <v>10.167174070085968</v>
       </c>
     </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="C71" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="J71" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="K71" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="L71" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B72" s="58" t="s">
+        <v>4</v>
+      </c>
+      <c r="C72" s="85">
+        <f>(C13-D13)/SQRT((C14/C11)+(D14/90))</f>
+        <v>-14.860309200386094</v>
+      </c>
+      <c r="D72">
+        <f>_xlfn.NORM.S.DIST(C72,TRUE)</f>
+        <v>2.9824623924653613E-50</v>
+      </c>
+      <c r="E72">
+        <v>0.05</v>
+      </c>
+      <c r="I72" s="58" t="s">
+        <v>20</v>
+      </c>
+      <c r="J72" s="85">
+        <f>(C21-D21)/SQRT((C22/90)+(D22/90))</f>
+        <v>-6.1812253776910078</v>
+      </c>
+      <c r="K72">
+        <f>_xlfn.NORM.S.DIST(J72,TRUE)</f>
+        <v>3.1802966030371975E-10</v>
+      </c>
+      <c r="L72">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B73" s="58" t="s">
+        <v>10</v>
+      </c>
+      <c r="C73" s="85">
+        <f>(E13-F13)/SQRT((E14/90)+(F14/90))</f>
+        <v>0</v>
+      </c>
+      <c r="D73">
+        <f t="shared" ref="D73:D84" si="12">_xlfn.NORM.S.DIST(C73,TRUE)</f>
+        <v>0.5</v>
+      </c>
+      <c r="E73">
+        <v>0.05</v>
+      </c>
+      <c r="I73" s="59" t="s">
+        <v>29</v>
+      </c>
+      <c r="J73" s="85">
+        <f>(E21-F21)/SQRT((E22/90)+(F22/90))</f>
+        <v>0</v>
+      </c>
+      <c r="K73">
+        <f t="shared" ref="K73:K75" si="13">_xlfn.NORM.S.DIST(J73,TRUE)</f>
+        <v>0.5</v>
+      </c>
+      <c r="L73">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B74" s="58" t="s">
+        <v>11</v>
+      </c>
+      <c r="C74" s="85">
+        <f>(G13-H13)/SQRT((G14/G11)+(H14/90))</f>
+        <v>-10.597406569370348</v>
+      </c>
+      <c r="D74">
+        <f t="shared" si="12"/>
+        <v>1.531790451119768E-26</v>
+      </c>
+      <c r="E74">
+        <v>0.05</v>
+      </c>
+      <c r="I74" s="59" t="s">
+        <v>30</v>
+      </c>
+      <c r="J74" s="85">
+        <f>(G21-H21)/SQRT((G22/G19)+(H22/H19))</f>
+        <v>-15.011587487243698</v>
+      </c>
+      <c r="K74">
+        <f t="shared" si="13"/>
+        <v>3.0827127233665893E-51</v>
+      </c>
+      <c r="L74">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B75" s="58" t="s">
+        <v>12</v>
+      </c>
+      <c r="C75" s="85">
+        <f>(I13-J13)/SQRT((I14/I11)+(J14/90))</f>
+        <v>-12.406419302320401</v>
+      </c>
+      <c r="D75">
+        <f t="shared" si="12"/>
+        <v>1.2060024407018881E-35</v>
+      </c>
+      <c r="E75">
+        <v>0.05</v>
+      </c>
+      <c r="I75" s="58" t="s">
+        <v>84</v>
+      </c>
+      <c r="J75" s="85">
+        <f>(I21-J21)/SQRT((I22/I19)+(J22/J19))</f>
+        <v>-21.154116455382034</v>
+      </c>
+      <c r="K75">
+        <f t="shared" si="13"/>
+        <v>1.2644121951763429E-99</v>
+      </c>
+      <c r="L75">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B76" s="58" t="s">
+        <v>13</v>
+      </c>
+      <c r="C76" s="85">
+        <f>(K13-L13)/SQRT((K14/90)+(L14/90))</f>
+        <v>-19.341175135133774</v>
+      </c>
+      <c r="D76">
+        <f t="shared" si="12"/>
+        <v>1.2094969723636376E-83</v>
+      </c>
+      <c r="E76">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B77" s="58" t="s">
+        <v>16</v>
+      </c>
+      <c r="C77" s="85">
+        <f>(M13-N13)/SQRT((M14/90)+(N14/90))</f>
+        <v>-18.479285152946598</v>
+      </c>
+      <c r="D77">
+        <f t="shared" si="12"/>
+        <v>1.51585708156606E-76</v>
+      </c>
+      <c r="E77">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="78" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B78" s="58" t="s">
+        <v>17</v>
+      </c>
+      <c r="C78" s="85">
+        <f>(O13-P13)/SQRT((O14/90)+(P14/90))</f>
+        <v>-11.384199576606168</v>
+      </c>
+      <c r="D78">
+        <f t="shared" si="12"/>
+        <v>2.5063193567970514E-30</v>
+      </c>
+      <c r="E78">
+        <v>0.05</v>
+      </c>
+      <c r="J78" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="K78" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="L78" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B79" s="58" t="s">
+        <v>22</v>
+      </c>
+      <c r="C79" s="85">
+        <f>(Q13-R13)/SQRT((Q14/90)+(R14/90))</f>
+        <v>-28.856719847789897</v>
+      </c>
+      <c r="D79">
+        <f t="shared" si="12"/>
+        <v>2.0864271273082407E-183</v>
+      </c>
+      <c r="E79">
+        <v>0.05</v>
+      </c>
+      <c r="I79" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J79" s="85">
+        <f>(C29-D29)/SQRT((C30/90)+(D30/90))</f>
+        <v>-4.305283859114458</v>
+      </c>
+      <c r="K79">
+        <f>_xlfn.NORM.S.DIST(J79,TRUE)</f>
+        <v>8.3385875542574875E-6</v>
+      </c>
+      <c r="L79">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="80" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B80" s="58" t="s">
+        <v>24</v>
+      </c>
+      <c r="C80" s="85">
+        <f>(S13-T13)/SQRT((S14/S11)+(T14/90))</f>
+        <v>-15.011587487243698</v>
+      </c>
+      <c r="D80">
+        <f t="shared" si="12"/>
+        <v>3.0827127233665893E-51</v>
+      </c>
+      <c r="E80">
+        <v>0.05</v>
+      </c>
+      <c r="I80" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J80" s="85">
+        <f>(E29-F29)/SQRT((E30/90)+(F30/90))</f>
+        <v>-27.166528071674275</v>
+      </c>
+      <c r="K80">
+        <f t="shared" ref="K80:K83" si="14">_xlfn.NORM.S.DIST(J80,TRUE)</f>
+        <v>8.0766068782402472E-163</v>
+      </c>
+      <c r="L80">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="81" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B81" s="58" t="s">
+        <v>25</v>
+      </c>
+      <c r="C81" s="85">
+        <f>(U13-V13)/SQRT((U14/90)+(V14/90))</f>
+        <v>-12.406419302320401</v>
+      </c>
+      <c r="D81">
+        <f t="shared" si="12"/>
+        <v>1.2060024407018881E-35</v>
+      </c>
+      <c r="E81">
+        <v>0.05</v>
+      </c>
+      <c r="I81" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J81" s="85">
+        <f>(G29-H29)/SQRT((G30/90)+(H30/90))</f>
+        <v>-17.162326606420663</v>
+      </c>
+      <c r="K81">
+        <f t="shared" si="14"/>
+        <v>2.5417859065893647E-66</v>
+      </c>
+      <c r="L81">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="82" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B82" s="58" t="s">
+        <v>31</v>
+      </c>
+      <c r="C82" s="85">
+        <f>(W13-X13)/SQRT((W14/90)+(X14/90))</f>
+        <v>-12.144433053375101</v>
+      </c>
+      <c r="D82">
+        <f t="shared" si="12"/>
+        <v>3.070338046949685E-34</v>
+      </c>
+      <c r="E82">
+        <v>0.05</v>
+      </c>
+      <c r="I82" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J82" s="85">
+        <f>(I29-J29)/SQRT((I30/90)+(J30/90))</f>
+        <v>-2.3016472617940398</v>
+      </c>
+      <c r="K82">
+        <f t="shared" si="14"/>
+        <v>1.0677536278479345E-2</v>
+      </c>
+      <c r="L82">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="83" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B83" s="58" t="s">
+        <v>33</v>
+      </c>
+      <c r="C83" s="85">
+        <f>(Y13-Z13)/SQRT((Y14/Y11)+(Z14/Z11))</f>
+        <v>-4.7172817652486314</v>
+      </c>
+      <c r="D83">
+        <f t="shared" si="12"/>
+        <v>1.1950828223538564E-6</v>
+      </c>
+      <c r="E83">
+        <v>0.05</v>
+      </c>
+      <c r="I83" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J83" s="85">
+        <f>(K29-L29)/SQRT((K30/K27)+(L30/L27))</f>
+        <v>-48.888089619224424</v>
+      </c>
+      <c r="K83">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="L83">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="84" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B84" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="C84" s="85">
+        <f>(AA13-AB13)/SQRT((AA14/AA11)+(AB14/AB11))</f>
+        <v>-160.92756533363644</v>
+      </c>
+      <c r="D84">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="E84">
+        <v>0.05</v>
+      </c>
+      <c r="I84" s="2"/>
+    </row>
+    <row r="86" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="I86" s="2"/>
+    </row>
+    <row r="87" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="C87" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="J87" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="K87" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="L87" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="88" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B88" s="58" t="s">
+        <v>2</v>
+      </c>
+      <c r="C88" s="85">
+        <f>(C45-D45)/SQRT((C46/90)+(D46/90))</f>
+        <v>5.6750999500748858</v>
+      </c>
+      <c r="D88">
+        <f>_xlfn.NORM.S.DIST(C88,TRUE)</f>
+        <v>0.99999999306961496</v>
+      </c>
+      <c r="E88">
+        <v>0.05</v>
+      </c>
+      <c r="I88" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="J88" s="85">
+        <f>(C37-D37)/SQRT((C38/90)+(D38/90))</f>
+        <v>5.5286560515055614</v>
+      </c>
+      <c r="K88">
+        <f>_xlfn.NORM.S.DIST(J88,TRUE)</f>
+        <v>0.99999998386533473</v>
+      </c>
+      <c r="L88">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="89" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B89" s="58" t="s">
+        <v>6</v>
+      </c>
+      <c r="C89" s="85">
+        <f>(E45-F45)/SQRT((E46/90)+(F46/90))</f>
+        <v>-21.418708223114265</v>
+      </c>
+      <c r="D89">
+        <f t="shared" ref="D89:D96" si="15">_xlfn.NORM.S.DIST(C89,TRUE)</f>
+        <v>4.4717381972697388E-102</v>
+      </c>
+      <c r="E89">
+        <v>0.05</v>
+      </c>
+      <c r="J89" s="85"/>
+    </row>
+    <row r="90" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B90" s="58" t="s">
+        <v>9</v>
+      </c>
+      <c r="C90" s="85">
+        <f>(G45-H45)/SQRT((G46/90)+(H46/90))</f>
+        <v>-5.6750999500748858</v>
+      </c>
+      <c r="D90">
+        <f t="shared" si="15"/>
+        <v>6.9303850936933353E-9</v>
+      </c>
+      <c r="E90">
+        <v>0.05</v>
+      </c>
+      <c r="J90" s="85"/>
+    </row>
+    <row r="91" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B91" s="58" t="s">
+        <v>14</v>
+      </c>
+      <c r="C91" s="85">
+        <f>(I45-J45)/SQRT((I46/90)+(J46/90))</f>
+        <v>-12.406419302320401</v>
+      </c>
+      <c r="D91">
+        <f t="shared" si="15"/>
+        <v>1.2060024407018881E-35</v>
+      </c>
+      <c r="E91">
+        <v>0.05</v>
+      </c>
+      <c r="J91" s="86" t="s">
+        <v>95</v>
+      </c>
+      <c r="K91" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="L91" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="92" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B92" s="58" t="s">
+        <v>23</v>
+      </c>
+      <c r="C92" s="85">
+        <f>(K45-L45)/SQRT((K46/90)+(L46/90))</f>
+        <v>-20.862020050728919</v>
+      </c>
+      <c r="D92">
+        <f t="shared" si="15"/>
+        <v>5.9278423191524431E-97</v>
+      </c>
+      <c r="E92">
+        <v>0.05</v>
+      </c>
+      <c r="I92" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="J92" s="85">
+        <f>(C53-D53)/SQRT((C54/C51)+(D54/D51))</f>
+        <v>-344.12303312097907</v>
+      </c>
+      <c r="K92">
+        <f>_xlfn.NORM.S.DIST(J92,TRUE)</f>
+        <v>0</v>
+      </c>
+      <c r="L92">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="93" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B93" s="58" t="s">
+        <v>26</v>
+      </c>
+      <c r="C93" s="85">
+        <f>(M45-N45)/SQRT((M46/90)+(N46/90))</f>
+        <v>-11.013529722048052</v>
+      </c>
+      <c r="D93">
+        <f t="shared" si="15"/>
+        <v>1.6443091459463982E-28</v>
+      </c>
+      <c r="E93">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="94" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B94" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="C94" s="85">
+        <f>(O45-P45)/SQRT((O46/90)+(P46/90))</f>
+        <v>-31.113482294462081</v>
+      </c>
+      <c r="D94">
+        <f t="shared" si="15"/>
+        <v>7.9139295386986727E-213</v>
+      </c>
+      <c r="E94">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="95" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B95" s="58" t="s">
+        <v>32</v>
+      </c>
+      <c r="C95" s="85">
+        <f>(Q45-R45)/SQRT((Q46/90)+(R46/90))</f>
+        <v>-13.737656494634932</v>
+      </c>
+      <c r="D95">
+        <f t="shared" si="15"/>
+        <v>3.0199685883864205E-43</v>
+      </c>
+      <c r="E95">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="96" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B96" s="58" t="s">
+        <v>3</v>
+      </c>
+      <c r="C96" s="85">
+        <f>(S45-T45)/SQRT((S46/S43)+(T46/T43))</f>
+        <v>-112.99940723966611</v>
+      </c>
+      <c r="D96">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="E96">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="97" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B97" s="58"/>
+    </row>
   </sheetData>
   <mergeCells count="39">
-    <mergeCell ref="M41:N41"/>
-    <mergeCell ref="O41:P41"/>
-    <mergeCell ref="Q41:R41"/>
-    <mergeCell ref="S41:T41"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="I41:J41"/>
-    <mergeCell ref="K41:L41"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="B17:B18"/>
     <mergeCell ref="AA9:AB9"/>
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="Y9:Z9"/>
@@ -8249,7 +10407,57 @@
     <mergeCell ref="G9:H9"/>
     <mergeCell ref="E9:F9"/>
     <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="I41:J41"/>
+    <mergeCell ref="K41:L41"/>
+    <mergeCell ref="M41:N41"/>
+    <mergeCell ref="O41:P41"/>
+    <mergeCell ref="Q41:R41"/>
+    <mergeCell ref="S41:T41"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="C49:D49"/>
   </mergeCells>
+  <conditionalFormatting sqref="D72:D84">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="greaterThan">
+      <formula>$E$72</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D88:D96">
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="greaterThan">
+      <formula>$E$88</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K72:K75">
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="greaterThan">
+      <formula>$L$72</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K79:K83">
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="greaterThan">
+      <formula>$L$79</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K88">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
+      <formula>$L$88</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -8259,7 +10467,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C28AF4DC-99A1-4FA0-A7EC-0F0CE901A908}">
   <dimension ref="A1:AH4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="AH4" sqref="AH4"/>
     </sheetView>
   </sheetViews>
